--- a/Concentrado.xlsx
+++ b/Concentrado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcastilloj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jor98\OneDrive\Documentos Personales\Utilerias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8723C8F9-BAFD-4179-8E8E-E0F22CA7C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CA447-2367-4E52-BB3A-6659163635E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{027D72FD-15EF-43E1-9864-28D2D04600CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{027D72FD-15EF-43E1-9864-28D2D04600CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1329,28 +1329,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42A90B6-3FB3-44B5-8DC1-1D00BF893F77}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>210351</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>210351</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>210351</v>
       </c>
@@ -1580,13 +1580,13 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>210351</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>210351</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>210351</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210351</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>210351</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>210351</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>210351</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210351</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>210351</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>210351</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>210352</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>210352</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>210352</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>210352</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210352</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>210352</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>210352</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210351</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>210351</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>210351</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>210351</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>210351</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>210351</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>210351</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>210351</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>210351</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>210351</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>210351</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>210351</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>210352</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>210352</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>210352</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>210352</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>210352</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>210353</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>210353</v>
       </c>
@@ -3932,27 +3932,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6629822C-CFB0-481E-A617-57FC4B930C60}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="102" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="46"/>
     </row>
-    <row r="2" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -4238,12 +4238,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>22</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>4</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>6</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>7</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>8</v>
       </c>
@@ -4347,7 +4347,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>9</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>10</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>11</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>12</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>14</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>15</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>16</v>
       </c>
@@ -4459,12 +4459,12 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>22</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>3</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>4</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>6</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>7</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>8</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>9</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>11</v>
       </c>
@@ -4634,25 +4634,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4DEDB5-3CCD-4C34-9546-EC6E89401FD1}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="3" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="14"/>
+    <col min="7" max="7" width="22.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.88671875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="39.109375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>86</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="C3" s="21"/>
@@ -4723,7 +4723,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="17"/>
       <c r="C4" s="21"/>
@@ -4738,7 +4738,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="17"/>
       <c r="C5" s="21"/>
@@ -4753,7 +4753,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="17"/>
       <c r="C6" s="21"/>
@@ -4768,7 +4768,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>2</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="17">
         <v>8</v>
@@ -4820,7 +4820,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="17">
         <v>14</v>
@@ -4843,7 +4843,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="17">
         <v>16</v>
@@ -4866,7 +4866,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="17">
         <v>17</v>
@@ -4885,7 +4885,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="18">
         <v>18</v>
@@ -4900,7 +4900,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>3</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="17">
         <v>7</v>
@@ -4944,7 +4944,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="17">
         <v>10</v>
@@ -4959,7 +4959,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="17">
         <v>11</v>
@@ -4974,7 +4974,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="17">
         <v>13</v>
@@ -4989,7 +4989,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>4</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="17">
         <v>5</v>
@@ -5041,7 +5041,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="17">
         <v>6</v>
@@ -5060,7 +5060,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>9</v>
@@ -5079,7 +5079,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17">
         <v>12</v>
@@ -5094,7 +5094,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17">
         <v>15</v>
@@ -5109,7 +5109,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="18">
         <v>19</v>
@@ -5124,12 +5124,12 @@
       <c r="H24" s="32"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H30" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H31" s="16" t="s">
         <v>110</v>
       </c>
